--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_9_35.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_9_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3217671.605833853</v>
+        <v>3215173.873910164</v>
       </c>
     </row>
     <row r="7">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -668,16 +668,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>12.92889148616886</v>
+        <v>412.9288914861689</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>315.1636514716171</v>
       </c>
       <c r="I2" t="n">
-        <v>99.22966157109842</v>
+        <v>118.9581905386867</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0.7530123241020306</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>154.9260532011782</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.7043385723318</v>
       </c>
       <c r="U2" t="n">
         <v>251.1557452255192</v>
@@ -719,13 +719,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>1.45320055629491</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -862,22 +862,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>129.4149600371267</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>205.4595917937733</v>
       </c>
       <c r="T4" t="n">
-        <v>160.1616712388844</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2609479597986</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>196.7009399697754</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0.7530123241020306</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>154.9260532011782</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.7043385723318</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1557452255192</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>177.2491046558036</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>317.1229952260962</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>4.704136202664817</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>223.3958800207158</v>
       </c>
       <c r="U7" t="n">
-        <v>2.128310457550929</v>
+        <v>286.2609479597986</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1133,7 +1133,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1148,10 +1148,10 @@
         <v>12.9169039459368</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,13 +1184,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
-        <v>238.0964386703307</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>270.7700963928824</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1291,13 +1291,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>142.5318748130975</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>49.94675160484174</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,19 +1345,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634796</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881296</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1528,7 +1528,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1537,16 +1537,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>39.52129633183122</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1616,7 +1616,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1774,13 +1774,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>26.05480806223585</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0.8253826161906772</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1850,7 +1850,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722627</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1907,7 +1907,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784677</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1938,7 +1938,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2002,25 +2002,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>104.8913819999782</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>27.02919805176109</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881294</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2175,7 +2175,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2242,13 +2242,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>104.8913819999782</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>20.43112068613158</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2257,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2412,7 +2412,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H24" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2476,25 +2476,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>42.71572132711237</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>83.06560892428168</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2649,7 +2649,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H27" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428168</v>
+        <v>73.9322284908373</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2886,7 +2886,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H30" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3123,7 +3123,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H33" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3193,19 +3193,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>27.0291980517616</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3281,7 +3281,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444128</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3360,7 +3360,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3424,22 +3424,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>121.8000472740347</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428169</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3597,7 +3597,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3664,22 +3664,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428169</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3727,7 +3727,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>90.85912858529821</v>
       </c>
     </row>
     <row r="41">
@@ -3755,7 +3755,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3898,10 +3898,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>104.8913819999782</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3949,7 +3949,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>6.434538210426389</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3989,7 +3989,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H44" t="n">
         <v>283.1540821444137</v>
@@ -4135,25 +4135,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>42.71572132711237</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4189,7 +4189,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,49 +4304,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>900.1832716254632</v>
+        <v>1677.576492502431</v>
       </c>
       <c r="C2" t="n">
-        <v>531.2207546850516</v>
+        <v>1677.576492502431</v>
       </c>
       <c r="D2" t="n">
-        <v>172.9550560783011</v>
+        <v>1319.31079389568</v>
       </c>
       <c r="E2" t="n">
-        <v>172.9550560783011</v>
+        <v>1319.31079389568</v>
       </c>
       <c r="F2" t="n">
-        <v>166.0095553290976</v>
+        <v>908.324889106073</v>
       </c>
       <c r="G2" t="n">
-        <v>152.9500689794321</v>
+        <v>491.2249987160033</v>
       </c>
       <c r="H2" t="n">
-        <v>152.9500689794321</v>
+        <v>172.8778760174001</v>
       </c>
       <c r="I2" t="n">
         <v>52.7180875944842</v>
       </c>
       <c r="J2" t="n">
-        <v>72.94508437002453</v>
+        <v>240.3507333903776</v>
       </c>
       <c r="K2" t="n">
-        <v>474.9025859199842</v>
+        <v>321.4042764948841</v>
       </c>
       <c r="L2" t="n">
-        <v>1025.843037648564</v>
+        <v>872.3447282234645</v>
       </c>
       <c r="M2" t="n">
-        <v>1655.476990529841</v>
+        <v>1501.978681104742</v>
       </c>
       <c r="N2" t="n">
-        <v>1948.012457026072</v>
+        <v>1796.232074633117</v>
       </c>
       <c r="O2" t="n">
-        <v>2493.174093780568</v>
+        <v>1964.401531937495</v>
       </c>
       <c r="P2" t="n">
-        <v>2602.201833992997</v>
+        <v>2392.009993239692</v>
       </c>
       <c r="Q2" t="n">
         <v>2635.90437972421</v>
@@ -4355,25 +4355,25 @@
         <v>2635.143761215016</v>
       </c>
       <c r="S2" t="n">
-        <v>2635.143761215016</v>
+        <v>2478.652798385543</v>
       </c>
       <c r="T2" t="n">
-        <v>2635.143761215016</v>
+        <v>2263.799931140763</v>
       </c>
       <c r="U2" t="n">
-        <v>2381.451089270047</v>
+        <v>2010.107259195795</v>
       </c>
       <c r="V2" t="n">
-        <v>2050.388201926477</v>
+        <v>1679.044371852224</v>
       </c>
       <c r="W2" t="n">
-        <v>2050.388201926477</v>
+        <v>1677.576492502431</v>
       </c>
       <c r="X2" t="n">
-        <v>1676.922443665397</v>
+        <v>1677.576492502431</v>
       </c>
       <c r="Y2" t="n">
-        <v>1286.783111689585</v>
+        <v>1677.576492502431</v>
       </c>
     </row>
     <row r="3">
@@ -4401,28 +4401,28 @@
         <v>199.8245529640338</v>
       </c>
       <c r="H3" t="n">
-        <v>98.84600463815747</v>
+        <v>98.84600463815741</v>
       </c>
       <c r="I3" t="n">
         <v>52.7180875944842</v>
       </c>
       <c r="J3" t="n">
-        <v>52.7180875944842</v>
+        <v>170.7774263352079</v>
       </c>
       <c r="K3" t="n">
-        <v>381.1211448320009</v>
+        <v>499.1804835727247</v>
       </c>
       <c r="L3" t="n">
-        <v>884.103979029112</v>
+        <v>1002.163317769836</v>
       </c>
       <c r="M3" t="n">
-        <v>1523.04044400983</v>
+        <v>1180.051769638054</v>
       </c>
       <c r="N3" t="n">
-        <v>1720.045718791139</v>
+        <v>1832.438103619796</v>
       </c>
       <c r="O3" t="n">
-        <v>2191.222737149932</v>
+        <v>2380.36334282547</v>
       </c>
       <c r="P3" t="n">
         <v>2613.977979877466</v>
@@ -4462,7 +4462,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>52.7180875944842</v>
+        <v>221.6542705223911</v>
       </c>
       <c r="C4" t="n">
         <v>52.7180875944842</v>
@@ -4510,28 +4510,28 @@
         <v>1047.75168442186</v>
       </c>
       <c r="R4" t="n">
-        <v>1047.75168442186</v>
+        <v>917.0295025661763</v>
       </c>
       <c r="S4" t="n">
-        <v>1047.75168442186</v>
+        <v>709.4945613603447</v>
       </c>
       <c r="T4" t="n">
-        <v>885.9722185239968</v>
+        <v>709.4945613603447</v>
       </c>
       <c r="U4" t="n">
-        <v>596.8197458373317</v>
+        <v>420.3420886736795</v>
       </c>
       <c r="V4" t="n">
-        <v>342.1352576314448</v>
+        <v>420.3420886736795</v>
       </c>
       <c r="W4" t="n">
-        <v>52.7180875944842</v>
+        <v>221.6542705223911</v>
       </c>
       <c r="X4" t="n">
-        <v>52.7180875944842</v>
+        <v>221.6542705223911</v>
       </c>
       <c r="Y4" t="n">
-        <v>52.7180875944842</v>
+        <v>221.6542705223911</v>
       </c>
     </row>
     <row r="5">
@@ -4541,10 +4541,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1305.899331261676</v>
+        <v>947.6336326549251</v>
       </c>
       <c r="C5" t="n">
-        <v>936.9368143212639</v>
+        <v>578.6711157145133</v>
       </c>
       <c r="D5" t="n">
         <v>578.6711157145133</v>
@@ -4565,52 +4565,52 @@
         <v>52.7180875944842</v>
       </c>
       <c r="J5" t="n">
-        <v>72.94508437002452</v>
+        <v>72.94508437002453</v>
       </c>
       <c r="K5" t="n">
-        <v>153.9986274745311</v>
+        <v>365.0295758756591</v>
       </c>
       <c r="L5" t="n">
-        <v>704.9390792031114</v>
+        <v>915.9700276042395</v>
       </c>
       <c r="M5" t="n">
-        <v>1334.573032084389</v>
+        <v>1545.603980485517</v>
       </c>
       <c r="N5" t="n">
-        <v>1959.763123039503</v>
+        <v>1737.820616272767</v>
       </c>
       <c r="O5" t="n">
-        <v>2493.174093780568</v>
+        <v>2282.982253027263</v>
       </c>
       <c r="P5" t="n">
-        <v>2602.201833992997</v>
+        <v>2392.009993239692</v>
       </c>
       <c r="Q5" t="n">
         <v>2635.90437972421</v>
       </c>
       <c r="R5" t="n">
-        <v>2635.143761215016</v>
+        <v>2635.90437972421</v>
       </c>
       <c r="S5" t="n">
-        <v>2635.143761215016</v>
+        <v>2479.413416894737</v>
       </c>
       <c r="T5" t="n">
-        <v>2635.143761215016</v>
+        <v>2264.560549649957</v>
       </c>
       <c r="U5" t="n">
-        <v>2635.143761215016</v>
+        <v>2010.867877704989</v>
       </c>
       <c r="V5" t="n">
-        <v>2635.143761215016</v>
+        <v>2010.867877704989</v>
       </c>
       <c r="W5" t="n">
-        <v>2456.104261562689</v>
+        <v>1658.099222434874</v>
       </c>
       <c r="X5" t="n">
-        <v>2082.638503301609</v>
+        <v>1337.772964630737</v>
       </c>
       <c r="Y5" t="n">
-        <v>1692.499171325797</v>
+        <v>947.6336326549251</v>
       </c>
     </row>
     <row r="6">
@@ -4638,22 +4638,22 @@
         <v>199.8245529640338</v>
       </c>
       <c r="H6" t="n">
-        <v>98.84600463815748</v>
+        <v>98.8460046381575</v>
       </c>
       <c r="I6" t="n">
         <v>52.7180875944842</v>
       </c>
       <c r="J6" t="n">
-        <v>52.7180875944842</v>
+        <v>170.7774263352079</v>
       </c>
       <c r="K6" t="n">
-        <v>310.0398778971867</v>
+        <v>499.1804835727247</v>
       </c>
       <c r="L6" t="n">
-        <v>813.0227120942977</v>
+        <v>635.0313759194112</v>
       </c>
       <c r="M6" t="n">
-        <v>990.911163962516</v>
+        <v>1273.967840900129</v>
       </c>
       <c r="N6" t="n">
         <v>1643.297497944258</v>
@@ -4747,22 +4747,22 @@
         <v>1047.75168442186</v>
       </c>
       <c r="R7" t="n">
-        <v>1047.75168442186</v>
+        <v>1043.000031691895</v>
       </c>
       <c r="S7" t="n">
-        <v>1047.75168442186</v>
+        <v>1043.000031691895</v>
       </c>
       <c r="T7" t="n">
-        <v>1047.75168442186</v>
+        <v>817.3476276305664</v>
       </c>
       <c r="U7" t="n">
-        <v>1045.601875878879</v>
+        <v>528.1951549439012</v>
       </c>
       <c r="V7" t="n">
-        <v>790.9173876729923</v>
+        <v>273.5106667380143</v>
       </c>
       <c r="W7" t="n">
-        <v>501.5002176360317</v>
+        <v>273.5106667380143</v>
       </c>
       <c r="X7" t="n">
         <v>273.5106667380143</v>
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>561.366453607157</v>
+        <v>390.9340812943466</v>
       </c>
       <c r="C8" t="n">
-        <v>192.4039366667454</v>
+        <v>390.9340812943466</v>
       </c>
       <c r="D8" t="n">
-        <v>192.4039366667454</v>
+        <v>390.9340812943466</v>
       </c>
       <c r="E8" t="n">
-        <v>192.4039366667454</v>
+        <v>390.9340812943466</v>
       </c>
       <c r="F8" t="n">
-        <v>185.4584359175419</v>
+        <v>383.9885805451432</v>
       </c>
       <c r="G8" t="n">
-        <v>172.4110581943734</v>
+        <v>370.9412028219747</v>
       </c>
       <c r="H8" t="n">
-        <v>172.4110581943734</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="I8" t="n">
         <v>52.7180875944842</v>
@@ -4805,22 +4805,22 @@
         <v>241.3579866082205</v>
       </c>
       <c r="K8" t="n">
-        <v>644.825099628266</v>
+        <v>622.5709059248677</v>
       </c>
       <c r="L8" t="n">
-        <v>1197.638357874465</v>
+        <v>1175.384164171067</v>
       </c>
       <c r="M8" t="n">
-        <v>1384.337770699873</v>
+        <v>1807.101975154379</v>
       </c>
       <c r="N8" t="n">
-        <v>1578.671983591855</v>
+        <v>2001.436188046361</v>
       </c>
       <c r="O8" t="n">
-        <v>1961.413372610014</v>
+        <v>2171.605213363321</v>
       </c>
       <c r="P8" t="n">
-        <v>2390.728418949309</v>
+        <v>2600.920259702615</v>
       </c>
       <c r="Q8" t="n">
         <v>2635.90437972421</v>
@@ -4832,22 +4832,22 @@
         <v>2635.90437972421</v>
       </c>
       <c r="T8" t="n">
-        <v>2635.90437972421</v>
+        <v>2421.104517991922</v>
       </c>
       <c r="U8" t="n">
-        <v>2395.402926521856</v>
+        <v>2167.412814737072</v>
       </c>
       <c r="V8" t="n">
-        <v>2064.340039178285</v>
+        <v>1893.907666865474</v>
       </c>
       <c r="W8" t="n">
-        <v>1711.57138390817</v>
+        <v>1541.13901159536</v>
       </c>
       <c r="X8" t="n">
-        <v>1338.105625647091</v>
+        <v>1167.67325333428</v>
       </c>
       <c r="Y8" t="n">
-        <v>947.9662936712789</v>
+        <v>777.5339213584684</v>
       </c>
     </row>
     <row r="9">
@@ -4884,16 +4884,16 @@
         <v>171.3773394513799</v>
       </c>
       <c r="K9" t="n">
-        <v>500.8057437571897</v>
+        <v>238.9851591147369</v>
       </c>
       <c r="L9" t="n">
-        <v>1005.167283623308</v>
+        <v>743.3466989808555</v>
       </c>
       <c r="M9" t="n">
-        <v>1184.664619977913</v>
+        <v>1383.89204844796</v>
       </c>
       <c r="N9" t="n">
-        <v>1430.945911741486</v>
+        <v>1820.869607825449</v>
       </c>
       <c r="O9" t="n">
         <v>1980.381920494209</v>
@@ -4936,13 +4936,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>422.2221741820417</v>
+        <v>196.6896783147847</v>
       </c>
       <c r="C10" t="n">
-        <v>253.2859912541348</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="D10" t="n">
-        <v>103.1693518417991</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="E10" t="n">
         <v>52.7180875944842</v>
@@ -4984,28 +4984,28 @@
         <v>1052.652769053829</v>
       </c>
       <c r="R10" t="n">
-        <v>1052.652769053829</v>
+        <v>922.1748077732316</v>
       </c>
       <c r="S10" t="n">
-        <v>1052.652769053829</v>
+        <v>922.1748077732316</v>
       </c>
       <c r="T10" t="n">
-        <v>1052.652769053829</v>
+        <v>922.1748077732316</v>
       </c>
       <c r="U10" t="n">
-        <v>1052.652769053829</v>
+        <v>633.0226313509113</v>
       </c>
       <c r="V10" t="n">
-        <v>1052.652769053829</v>
+        <v>378.3381431450244</v>
       </c>
       <c r="W10" t="n">
-        <v>1052.652769053829</v>
+        <v>378.3381431450244</v>
       </c>
       <c r="X10" t="n">
-        <v>824.6632181558116</v>
+        <v>378.3381431450244</v>
       </c>
       <c r="Y10" t="n">
-        <v>603.8706390122815</v>
+        <v>378.3381431450244</v>
       </c>
     </row>
     <row r="11">
@@ -5027,22 +5027,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332386</v>
@@ -5060,31 +5060,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797186</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637304</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M12" t="n">
-        <v>1186.520756890282</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N12" t="n">
-        <v>1814.118720444888</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O12" t="n">
-        <v>2366.028450684175</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5258,10 +5258,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
         <v>793.7736536168611</v>
@@ -5270,16 +5270,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192591</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111722</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5291,7 +5291,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5303,7 +5303,7 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474784</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756265</v>
+        <v>139.234765840794</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>139.234765840794</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589157</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143764</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>580.0655846733346</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C16" t="n">
-        <v>411.1294017454277</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D16" t="n">
-        <v>261.0127623330919</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E16" t="n">
-        <v>261.0127623330919</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797186</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.129363765926</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2263.274529420831</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2043.673064443772</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1754.597837787969</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1499.913349582082</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1210.496179545122</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>982.5066286471044</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>761.7140495035743</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5501,22 +5501,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5540,19 +5540,19 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
         <v>3094.515198591809</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797186</v>
+        <v>417.9651836029414</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637304</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444888</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O18" t="n">
-        <v>2366.028450684175</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5650,34 +5650,34 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5747,31 +5747,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5783,16 +5783,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5829,19 +5829,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>139.234765840794</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>139.234765840794</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438179</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O21" t="n">
         <v>1859.536823237711</v>
@@ -5890,19 +5890,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="D22" t="n">
-        <v>513.8536007400712</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5911,10 +5911,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5975,22 +5975,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332386</v>
@@ -6002,13 +6002,13 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6066,25 +6066,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>280.8495004245714</v>
+        <v>251.562654109227</v>
       </c>
       <c r="L24" t="n">
-        <v>776.17510664033</v>
+        <v>746.8882603249857</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266882</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6124,22 +6124,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6148,10 +6148,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6200,52 +6200,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111731</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6306,25 +6306,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438179</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>545.3854261579752</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>397.4723325755821</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>250.5823850776717</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270443</v>
+        <v>250.5823850776717</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6385,10 +6385,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6443,13 +6443,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6458,13 +6458,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332386</v>
@@ -6476,13 +6476,13 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6537,19 +6537,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438179</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N30" t="n">
         <v>1307.627092998424</v>
@@ -6622,10 +6622,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6686,40 +6686,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111731</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793924</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348531</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6923,22 +6923,22 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362676</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6950,22 +6950,22 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466572</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.584050252739</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793924</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348531</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7072,34 +7072,34 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7163,28 +7163,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111722</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7193,13 +7193,13 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
         <v>4405.252601474784</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.584050252739</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793924</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348531</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>642.8692823226941</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>473.9330993947872</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7375,7 +7375,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>824.5177471529338</v>
       </c>
     </row>
     <row r="41">
@@ -7391,31 +7391,31 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014778</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>1058.183521551621</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,10 +7543,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C43" t="n">
-        <v>407.9027098310023</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D43" t="n">
         <v>407.9027098310023</v>
@@ -7597,22 +7597,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2190.563011941682</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1901.48778528588</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1646.803297079993</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1357.386127043032</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1129.396576145015</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>908.6039970014847</v>
       </c>
     </row>
     <row r="44">
@@ -7622,10 +7622,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
         <v>1590.547811004712</v>
@@ -7634,31 +7634,31 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M45" t="n">
-        <v>1373.553594266881</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7837,19 +7837,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -7976,10 +7976,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>417.6612145504504</v>
@@ -7988,16 +7988,16 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N2" t="n">
-        <v>101.3321522312934</v>
+        <v>103.0674320617427</v>
       </c>
       <c r="O2" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R2" t="n">
         <v>65.71641987298243</v>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>6.839178026546477</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8064,16 +8064,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>459.9808678792256</v>
       </c>
       <c r="O3" t="n">
-        <v>316.3388638758399</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>127.4116517959594</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -8216,7 +8216,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>213.1625741425536</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
@@ -8225,16 +8225,16 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N5" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>368.9308216532186</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8292,19 +8292,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>6.839178026546477</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>192.6659774824632</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>459.9808678792255</v>
+        <v>174.0650325887068</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8453,25 +8453,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>301.6664290323786</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>214.7195592941409</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8532,19 +8532,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>48.10560617263477</v>
+        <v>240.7280987119432</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>7.958078640513122e-13</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -8942,7 +8942,7 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -9170,7 +9170,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -9401,7 +9401,7 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>1.70530256582424e-12</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>1.392663762089796e-12</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9890,7 +9890,7 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>1.392663762089796e-12</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>1.70530256582424e-12</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -10589,7 +10589,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -11297,7 +11297,7 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,13 +23425,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>100.7734165143927</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23662,16 +23662,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>119.3662399606954</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>65.54986409393102</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>43.72409101823415</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24130,13 +24130,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>41.54258064659096</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>124.9899273367997</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>124.5310997715155</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>62.35543909864957</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194221</v>
+        <v>66.36248435538658</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25081,19 +25081,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>119.4047645948076</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25126,7 +25126,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25312,25 +25312,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>45.44677382459312</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>57.2291039219422</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25552,22 +25552,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>57.2291039219422</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>127.7255247667966</v>
       </c>
     </row>
     <row r="41">
@@ -25786,10 +25786,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>62.35543909864963</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25837,7 +25837,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>210.9709121168619</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26023,25 +26023,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>97.57899151911153</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26077,7 +26077,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>711742.7704138665</v>
+        <v>711742.7704138664</v>
       </c>
     </row>
     <row r="6">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>718411.5486312475</v>
+        <v>718411.5486312482</v>
       </c>
       <c r="C2" t="n">
         <v>718411.5486312479</v>
       </c>
       <c r="D2" t="n">
-        <v>718411.5486312479</v>
+        <v>718411.5486312475</v>
       </c>
       <c r="E2" t="n">
         <v>706253.2747287551</v>
       </c>
       <c r="F2" t="n">
+        <v>706253.2747287552</v>
+      </c>
+      <c r="G2" t="n">
         <v>706253.2747287551</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>706253.2747287555</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
+        <v>706253.2747287556</v>
+      </c>
+      <c r="J2" t="n">
+        <v>706253.274728755</v>
+      </c>
+      <c r="K2" t="n">
+        <v>706253.2747287555</v>
+      </c>
+      <c r="L2" t="n">
+        <v>706253.2747287555</v>
+      </c>
+      <c r="M2" t="n">
+        <v>706253.2747287552</v>
+      </c>
+      <c r="N2" t="n">
         <v>706253.2747287554</v>
-      </c>
-      <c r="I2" t="n">
-        <v>706253.2747287551</v>
-      </c>
-      <c r="J2" t="n">
-        <v>706253.2747287556</v>
-      </c>
-      <c r="K2" t="n">
-        <v>706253.2747287551</v>
-      </c>
-      <c r="L2" t="n">
-        <v>706253.2747287554</v>
-      </c>
-      <c r="M2" t="n">
-        <v>706253.2747287555</v>
-      </c>
-      <c r="N2" t="n">
-        <v>706253.2747287555</v>
       </c>
       <c r="O2" t="n">
         <v>706253.2747287555</v>
       </c>
       <c r="P2" t="n">
-        <v>706253.274728755</v>
+        <v>706253.2747287554</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>2553.741448474159</v>
       </c>
       <c r="E3" t="n">
-        <v>775624.272232992</v>
+        <v>775624.2722329923</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26393,16 +26393,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.62584001373034e-10</v>
       </c>
       <c r="M3" t="n">
-        <v>128024.1174663867</v>
+        <v>128024.1174663866</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.540129233035259e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,40 +26424,40 @@
         <v>183932.5854660025</v>
       </c>
       <c r="E4" t="n">
-        <v>6287.480531695097</v>
+        <v>6287.48053169501</v>
       </c>
       <c r="F4" t="n">
-        <v>6287.480531695092</v>
+        <v>6287.480531695084</v>
       </c>
       <c r="G4" t="n">
-        <v>6287.480531695113</v>
+        <v>6287.48053169502</v>
       </c>
       <c r="H4" t="n">
-        <v>6287.480531695093</v>
+        <v>6287.480531695018</v>
       </c>
       <c r="I4" t="n">
-        <v>6287.480531695077</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="J4" t="n">
+        <v>6287.48053169506</v>
+      </c>
+      <c r="K4" t="n">
+        <v>6287.480531695075</v>
+      </c>
+      <c r="L4" t="n">
         <v>6287.480531695051</v>
       </c>
-      <c r="K4" t="n">
-        <v>6287.480531695077</v>
-      </c>
-      <c r="L4" t="n">
-        <v>6287.480531695082</v>
-      </c>
       <c r="M4" t="n">
-        <v>6287.480531695096</v>
+        <v>6287.480531695062</v>
       </c>
       <c r="N4" t="n">
-        <v>6287.480531695079</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="O4" t="n">
+        <v>6287.480531695051</v>
+      </c>
+      <c r="P4" t="n">
         <v>6287.480531695075</v>
-      </c>
-      <c r="P4" t="n">
-        <v>6287.480531695062</v>
       </c>
     </row>
     <row r="5">
@@ -26470,7 +26470,7 @@
         <v>86566.12012538442</v>
       </c>
       <c r="C5" t="n">
-        <v>86566.1201253844</v>
+        <v>86566.12012538442</v>
       </c>
       <c r="D5" t="n">
         <v>86631.1255591778</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-342436.8451572742</v>
+        <v>-342436.8451572735</v>
       </c>
       <c r="C6" t="n">
         <v>447409.0879649677</v>
       </c>
       <c r="D6" t="n">
-        <v>445294.0961575935</v>
+        <v>445294.0961575931</v>
       </c>
       <c r="E6" t="n">
-        <v>-176781.0078598391</v>
+        <v>-176815.7457852751</v>
       </c>
       <c r="F6" t="n">
-        <v>598843.264373153</v>
+        <v>598808.5264477174</v>
       </c>
       <c r="G6" t="n">
-        <v>598843.2643731533</v>
+        <v>598808.5264477173</v>
       </c>
       <c r="H6" t="n">
-        <v>598843.2643731532</v>
+        <v>598808.5264477177</v>
       </c>
       <c r="I6" t="n">
-        <v>598843.264373153</v>
+        <v>598808.5264477178</v>
       </c>
       <c r="J6" t="n">
-        <v>426426.1229910131</v>
+        <v>426391.3850655768</v>
       </c>
       <c r="K6" t="n">
-        <v>598843.264373153</v>
+        <v>598808.5264477177</v>
       </c>
       <c r="L6" t="n">
-        <v>598843.2643731532</v>
+        <v>598808.5264477176</v>
       </c>
       <c r="M6" t="n">
-        <v>470819.1469067667</v>
+        <v>470784.4089813307</v>
       </c>
       <c r="N6" t="n">
-        <v>598843.2643731533</v>
+        <v>598808.5264477176</v>
       </c>
       <c r="O6" t="n">
-        <v>598843.2643731532</v>
+        <v>598808.5264477177</v>
       </c>
       <c r="P6" t="n">
-        <v>598843.2643731529</v>
+        <v>598808.5264477176</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>3.519713256482333e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3.519713256482333e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.519713256482333e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>3.519713256482333e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3.519713256482333e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26716,7 +26716,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>3.519713256482333e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26790,10 +26790,10 @@
         <v>658.9760949310526</v>
       </c>
       <c r="C4" t="n">
-        <v>658.9760949310524</v>
+        <v>658.9760949310526</v>
       </c>
       <c r="D4" t="n">
-        <v>658.9760949310524</v>
+        <v>658.9760949310526</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3.519713256482333e-14</v>
+        <v>-3.318586784683342e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26938,7 +26938,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>3.519713256482333e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>2.981900632724546</v>
       </c>
       <c r="E3" t="n">
-        <v>774.4994000036085</v>
+        <v>774.4994000036087</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26987,16 +26987,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>513.7321931685957</v>
+        <v>513.7321931685958</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>513.7321931685954</v>
+        <v>513.7321931685958</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.519713256482333e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>513.7321931685957</v>
+        <v>513.7321931685958</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27388,16 +27388,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>315.1636514716171</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>19.72852896758832</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,10 +27427,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>154.9260532011782</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.7043385723318</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27439,13 +27439,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>347.7877681611181</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27537,7 +27537,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27582,22 +27582,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>129.4149600371267</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>205.4595917937733</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>63.2342087818314</v>
+        <v>223.3958800207158</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>89.82205836681555</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,13 +27613,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27661,25 +27661,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>0.7530123241020306</v>
       </c>
       <c r="S5" t="n">
-        <v>154.9260532011782</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>212.7043385723318</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1557452255192</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>171.9918640616094</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>52.6081054523728</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27819,25 +27819,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>129.4149600371267</v>
+        <v>124.7108238344618</v>
       </c>
       <c r="S7" t="n">
         <v>205.4595917937733</v>
       </c>
       <c r="T7" t="n">
-        <v>223.3958800207158</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>284.1326375022476</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27853,7 +27853,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27868,10 +27868,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,13 +27904,13 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>13.05834755196994</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>56.9821620772525</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28011,13 +28011,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>24.71494628553032</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>96.48721104172743</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>205.3658819001186</v>
@@ -28065,19 +28065,19 @@
         <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>9.848122317634988e-13</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28144,7 +28144,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>-9.28537247091299e-13</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -28336,7 +28336,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -28378,7 +28378,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28570,7 +28570,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -28627,7 +28627,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -28855,7 +28855,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>-4.220358301825128e-13</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>9.663381206337363e-13</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30274,7 +30274,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -30475,7 +30475,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30709,7 +30709,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -31750,37 +31750,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31789,10 +31789,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31841,34 +31841,34 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862119</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>322.8964653704916</v>
+        <v>552.0015769888928</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31914,28 +31914,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,37 +31987,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32026,10 +32026,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32072,40 +32072,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420754</v>
+        <v>170.9292585737929</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565771</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32151,28 +32151,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32224,37 +32224,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32263,10 +32263,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32309,40 +32309,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>312.3207226334981</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862119</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>322.8964653704916</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32388,28 +32388,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32418,7 +32418,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32461,37 +32461,37 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043725</v>
@@ -32500,10 +32500,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32549,37 +32549,37 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>172.7144981745678</v>
       </c>
       <c r="K21" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>734.2678383622667</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437242</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>182.689256441856</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
         <v>0.1935814387275954</v>
@@ -32625,28 +32625,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
         <v>206.5643005515927</v>
@@ -32655,7 +32655,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32698,37 +32698,37 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
         <v>345.4516222043725</v>
@@ -32737,10 +32737,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32786,37 +32786,37 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>326.7634969305202</v>
+        <v>146.0225991093089</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071783</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
         <v>0.1935814387275954</v>
@@ -32862,28 +32862,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
         <v>206.5643005515927</v>
@@ -32892,7 +32892,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
@@ -32935,37 +32935,37 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663298</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
         <v>345.4516222043725</v>
@@ -32974,10 +32974,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33026,34 +33026,34 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622667</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071783</v>
+        <v>746.4857620875799</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437242</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
         <v>0.1935814387275954</v>
@@ -33099,28 +33099,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P28" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
         <v>206.5643005515927</v>
@@ -33129,7 +33129,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
@@ -33172,37 +33172,37 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
         <v>345.4516222043725</v>
@@ -33211,10 +33211,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33257,40 +33257,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>391.605194951448</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622667</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>182.689256441856</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
         <v>0.1935814387275954</v>
@@ -33336,28 +33336,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P31" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
         <v>206.5643005515927</v>
@@ -33366,7 +33366,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473071</v>
+        <v>579.5299594447131</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862119</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558023</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,46 +33570,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P34" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,37 +33646,37 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
         <v>345.4516222043725</v>
@@ -33685,10 +33685,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33731,40 +33731,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862119</v>
+        <v>302.967544750805</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558023</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
         <v>0.1935814387275954</v>
@@ -33810,28 +33810,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
         <v>206.5643005515927</v>
@@ -33840,7 +33840,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
@@ -33883,37 +33883,37 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33922,10 +33922,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33968,40 +33968,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420754</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>229.6463482471742</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862119</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558023</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
         <v>0.1935814387275954</v>
@@ -34047,28 +34047,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
         <v>206.5643005515927</v>
@@ -34077,7 +34077,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34205,7 +34205,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34214,7 +34214,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>624.2063432190395</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34223,16 +34223,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34442,19 +34442,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>444.2274915982894</v>
+        <v>233.9389431948335</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34463,13 +34463,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,10 +34696,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>20.43130987428316</v>
+        <v>189.5279250463569</v>
       </c>
       <c r="K2" t="n">
-        <v>406.0176783332926</v>
+        <v>81.87226576212782</v>
       </c>
       <c r="L2" t="n">
         <v>556.5055067965458</v>
@@ -34708,16 +34708,16 @@
         <v>635.9938917992698</v>
       </c>
       <c r="N2" t="n">
-        <v>295.4903701982127</v>
+        <v>297.2256500286621</v>
       </c>
       <c r="O2" t="n">
-        <v>550.6683199540363</v>
+        <v>169.868138691291</v>
       </c>
       <c r="P2" t="n">
-        <v>110.1290305176052</v>
+        <v>431.9277386890878</v>
       </c>
       <c r="Q2" t="n">
-        <v>34.04297548607346</v>
+        <v>246.3579661459781</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>119.2518573138624</v>
       </c>
       <c r="K3" t="n">
         <v>331.7202598358755</v>
@@ -34784,16 +34784,16 @@
         <v>508.0634688859707</v>
       </c>
       <c r="M3" t="n">
-        <v>645.3903686673921</v>
+        <v>179.6853049173922</v>
       </c>
       <c r="N3" t="n">
-        <v>198.995227051827</v>
+        <v>658.9760949310526</v>
       </c>
       <c r="O3" t="n">
-        <v>475.9363821805993</v>
+        <v>553.459837581489</v>
       </c>
       <c r="P3" t="n">
-        <v>427.0254977045797</v>
+        <v>235.974380860602</v>
       </c>
       <c r="Q3" t="n">
         <v>22.14787863307501</v>
@@ -34936,7 +34936,7 @@
         <v>20.43130987428316</v>
       </c>
       <c r="K5" t="n">
-        <v>81.87226576212782</v>
+        <v>295.0348399046815</v>
       </c>
       <c r="L5" t="n">
         <v>556.5055067965458</v>
@@ -34945,16 +34945,16 @@
         <v>635.9938917992698</v>
       </c>
       <c r="N5" t="n">
-        <v>631.5051423789034</v>
+        <v>194.1582179669193</v>
       </c>
       <c r="O5" t="n">
-        <v>538.7989603445095</v>
+        <v>550.6683199540363</v>
       </c>
       <c r="P5" t="n">
         <v>110.1290305176052</v>
       </c>
       <c r="Q5" t="n">
-        <v>34.04297548607346</v>
+        <v>246.3579661459781</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,19 +35012,19 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>119.2518573138624</v>
       </c>
       <c r="K6" t="n">
-        <v>259.9210003057601</v>
+        <v>331.7202598358755</v>
       </c>
       <c r="L6" t="n">
-        <v>508.0634688859707</v>
+        <v>137.2231235825116</v>
       </c>
       <c r="M6" t="n">
-        <v>179.6853049173922</v>
+        <v>645.3903686673921</v>
       </c>
       <c r="N6" t="n">
-        <v>658.9760949310524</v>
+        <v>373.0602596405338</v>
       </c>
       <c r="O6" t="n">
         <v>553.459837581489</v>
@@ -35173,25 +35173,25 @@
         <v>190.5453525391276</v>
       </c>
       <c r="K8" t="n">
-        <v>407.5425384040863</v>
+        <v>385.0635548653002</v>
       </c>
       <c r="L8" t="n">
         <v>558.3972305517163</v>
       </c>
       <c r="M8" t="n">
-        <v>188.5852654802098</v>
+        <v>638.0987989730422</v>
       </c>
       <c r="N8" t="n">
         <v>196.2971847393761</v>
       </c>
       <c r="O8" t="n">
-        <v>386.6074636547061</v>
+        <v>171.8879043605652</v>
       </c>
       <c r="P8" t="n">
         <v>433.6515619588832</v>
       </c>
       <c r="Q8" t="n">
-        <v>247.6524856312129</v>
+        <v>35.33749497130819</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35252,19 +35252,19 @@
         <v>119.8578301584805</v>
       </c>
       <c r="K9" t="n">
-        <v>332.7559639452625</v>
+        <v>68.29072693268387</v>
       </c>
       <c r="L9" t="n">
         <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
-        <v>181.3104407622271</v>
+        <v>647.0155045122269</v>
       </c>
       <c r="N9" t="n">
-        <v>248.7689815793668</v>
+        <v>441.3914741186752</v>
       </c>
       <c r="O9" t="n">
-        <v>554.9858674269929</v>
+        <v>161.1235481502633</v>
       </c>
       <c r="P9" t="n">
         <v>428.2502711927643</v>
@@ -35404,31 +35404,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35489,28 +35489,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>188.9220579561613</v>
+        <v>418.0271695745625</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35574,19 +35574,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,31 +35641,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396427</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754087</v>
+        <v>44.09163190712619</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678995</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121327</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35811,19 +35811,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,31 +35878,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>174.4792836591391</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641936</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>188.9220579561613</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36048,19 +36048,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,31 +36115,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367786</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>45.87687150790109</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>592.1338044402485</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992797</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789208</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
         <v>264.3325884096349</v>
@@ -36285,19 +36285,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902418</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>188.9220579561612</v>
+        <v>8.181160134949948</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.937336923845</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
         <v>264.3325884096349</v>
@@ -36522,19 +36522,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36589,31 +36589,31 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396436</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902404</v>
@@ -36674,28 +36674,28 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402485</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.937336923845</v>
+        <v>615.1440500042467</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992797</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
         <v>264.3325884096349</v>
@@ -36759,19 +36759,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902418</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>253.0508151715738</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402485</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789208</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
         <v>264.3325884096349</v>
@@ -36996,19 +36996,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396436</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774901</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678995</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674329</v>
+        <v>440.9755796648388</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641936</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113578</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,31 +37300,31 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902404</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774901</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641936</v>
+        <v>160.8335108287866</v>
       </c>
       <c r="N36" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113578</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
         <v>264.3325884096349</v>
@@ -37470,19 +37470,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,31 +37537,31 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774901</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754087</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678995</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641936</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113578</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
         <v>264.3325884096349</v>
@@ -37707,19 +37707,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37862,7 +37862,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>485.6519634391653</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,16 +37871,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38017,7 +38017,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
@@ -38090,19 +38090,19 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>302.093457676271</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
@@ -38111,13 +38111,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
